--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>60.88831</v>
-      </c>
-      <c r="C2" t="n">
-        <v>194.76394</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.21268</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.11166</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31.29106</v>
-      </c>
-      <c r="G2" t="n">
-        <v>170.9482</v>
-      </c>
-      <c r="H2" t="n">
-        <v>63.52579</v>
-      </c>
-      <c r="I2" t="n">
-        <v>136.57688</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.3073</v>
-      </c>
-      <c r="K2" t="n">
-        <v>70.82214</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15.96198</v>
-      </c>
-      <c r="M2" t="n">
-        <v>22.7916</v>
-      </c>
-      <c r="N2" t="n">
-        <v>96.76251999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>63.51697</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30.83788</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>86.43550999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>17.74966</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.133</v>
-      </c>
-      <c r="T2" t="n">
-        <v>10.34528</v>
-      </c>
-      <c r="U2" t="n">
-        <v>142.58485</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-3.69307</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.4979</v>
-      </c>
-      <c r="X2" t="n">
-        <v>457.15637</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>497.13465</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>195.39775</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>34.8628</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.37682</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1148.41534</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>136.87586</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9.27145</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4393.48</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>59.51963</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>71.65349999999999</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>97.49563999999999</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.68832</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>54.78665</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>68.73596999999999</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>97.51024</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>158.08663</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.53681</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>77.07908999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>298.40732</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.32581</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.13343</v>
-      </c>
-      <c r="F3" t="n">
-        <v>41.46248</v>
-      </c>
-      <c r="G3" t="n">
-        <v>159.7818</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20.5425</v>
-      </c>
-      <c r="I3" t="n">
-        <v>168.05117</v>
-      </c>
-      <c r="J3" t="n">
-        <v>53.43823</v>
-      </c>
-      <c r="K3" t="n">
-        <v>91.61772999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>17.71748</v>
-      </c>
-      <c r="M3" t="n">
-        <v>25.66921</v>
-      </c>
-      <c r="N3" t="n">
-        <v>123.61952</v>
-      </c>
-      <c r="O3" t="n">
-        <v>68.81317</v>
-      </c>
-      <c r="P3" t="n">
-        <v>29.71784</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>100.68364</v>
-      </c>
-      <c r="R3" t="n">
-        <v>20.09146</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.05615</v>
-      </c>
-      <c r="T3" t="n">
-        <v>26.24602</v>
-      </c>
-      <c r="U3" t="n">
-        <v>176.80372</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-0.75946</v>
-      </c>
-      <c r="W3" t="n">
-        <v>41.83245</v>
-      </c>
-      <c r="X3" t="n">
-        <v>529.97223</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>462.14568</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>235.31652</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>41.19915</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>-12.05499</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>978.14572</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>131.94813</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9.085570000000001</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4733</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>62.04025</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>97.05817999999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>125.76036</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13.74607</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>66.17512000000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>96.60408</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>103.10989</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>201.72375</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.997719999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>124.23741</v>
-      </c>
-      <c r="C4" t="n">
-        <v>490.75021</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.68851</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.05472</v>
-      </c>
-      <c r="F4" t="n">
-        <v>51.03247</v>
-      </c>
-      <c r="G4" t="n">
-        <v>279.04531</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29.14121</v>
-      </c>
-      <c r="I4" t="n">
-        <v>201.41659</v>
-      </c>
-      <c r="J4" t="n">
-        <v>58.95018</v>
-      </c>
-      <c r="K4" t="n">
-        <v>112.36536</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.66375</v>
-      </c>
-      <c r="M4" t="n">
-        <v>31.34294</v>
-      </c>
-      <c r="N4" t="n">
-        <v>191.46316</v>
-      </c>
-      <c r="O4" t="n">
-        <v>81.67493</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31.98475</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>111.19417</v>
-      </c>
-      <c r="R4" t="n">
-        <v>24.08348</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.7412</v>
-      </c>
-      <c r="T4" t="n">
-        <v>40.36846</v>
-      </c>
-      <c r="U4" t="n">
-        <v>212.7058</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-1.04845</v>
-      </c>
-      <c r="W4" t="n">
-        <v>84.81353</v>
-      </c>
-      <c r="X4" t="n">
-        <v>576.29243</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>468.96822</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>285.04479</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>57.50055</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>50.94434</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>912.58039</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>184.7146</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>4.7403</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5784.48</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>98.25257000000001</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>123.29667</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>154.97464</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15.7991</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>82.59621</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>115.31109</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>120.23957</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>294.76993</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10.57216</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
